--- a/inst/extdata/CopyOfData/ulrich29.xlsx
+++ b/inst/extdata/CopyOfData/ulrich29.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Documents/woodcarb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonesb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="680" windowWidth="26680" windowHeight="13160" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="880" windowWidth="26680" windowHeight="13160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,15 +26,229 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+  <si>
+    <t>Table 29.-Lumber production, imports, exports, and consumption, by softwoods and hardwoods, 1950-87</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Per capita consumption</t>
+  </si>
+  <si>
+    <t>Soft-</t>
+  </si>
+  <si>
+    <t>Hard-</t>
+  </si>
+  <si>
+    <t>Hard.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">woods </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Billion</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <r>
+      <t>1987</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Includes small volumes of mixed species (not classified as</t>
+    </r>
+  </si>
+  <si>
+    <t>Sources: U.S. Department of Commerce. Bureau of the Census (43.51.</t>
+  </si>
+  <si>
+    <t>softwoods or hardwoods).</t>
+  </si>
+  <si>
+    <t>52); U.S. Department of Agriculture, Foresl Service; Nationai Forest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preliminary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Products Association (16). Data for selected years 1899.1949 in</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>demand and price situation for forest products,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1964, table 7 (31)</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE: Data may not add to totals because of roundin.</t>
+  </si>
+  <si>
+    <t>Estimates of softwood lumber production for certain years in the</t>
+  </si>
+  <si>
+    <t>late 1970's and early 1980's by the Bureau of the Census and some</t>
+  </si>
+  <si>
+    <r>
+      <t>major softwood industry associations currently</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> vary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by as much as</t>
+    </r>
+  </si>
+  <si>
+    <t>5 percent. Cooperative studies are underway to resolve these</t>
+  </si>
+  <si>
+    <t>differences. Revisions made by Census as a result of these studies</t>
+  </si>
+  <si>
+    <t>will be reported in future issues of U.S. timber production, trade,</t>
+  </si>
+  <si>
+    <t>consumption, and price statistics.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode=".0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,12 +267,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,1801 +668,2855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>1950</v>
+      </c>
+      <c r="B11" s="21">
         <v>38</v>
       </c>
-      <c r="B1">
+      <c r="C11" s="21">
         <v>30.6</v>
       </c>
-      <c r="C1">
+      <c r="D11" s="21">
         <v>7.4</v>
       </c>
-      <c r="E1">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21">
         <v>3.4</v>
       </c>
-      <c r="F1">
+      <c r="G11" s="21">
         <v>3.1</v>
       </c>
-      <c r="G1">
+      <c r="H11" s="21">
         <v>0.3</v>
       </c>
-      <c r="I1">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
         <v>0.5</v>
       </c>
-      <c r="J1">
+      <c r="K11" s="21">
         <v>0.4</v>
       </c>
-      <c r="K1">
+      <c r="L11" s="21">
         <v>0.1</v>
       </c>
-      <c r="M1">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
         <v>40.9</v>
       </c>
-      <c r="N1">
+      <c r="O11" s="22">
         <v>33.4</v>
       </c>
-      <c r="O1">
+      <c r="P11" s="22">
         <v>7.5</v>
       </c>
-      <c r="Q1">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="23">
         <v>269</v>
       </c>
-      <c r="R1">
+      <c r="S11" s="23">
         <v>219</v>
       </c>
-      <c r="S1">
+      <c r="T11" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>1951</v>
+      </c>
+      <c r="B12" s="21">
         <v>37.200000000000003</v>
       </c>
-      <c r="B2">
+      <c r="C12" s="21">
         <v>29.5</v>
       </c>
-      <c r="C2">
+      <c r="D12" s="21">
         <v>7.7</v>
       </c>
-      <c r="E2">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>2.5</v>
       </c>
-      <c r="F2">
+      <c r="G12" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G2">
+      <c r="H12" s="22">
         <v>0.3</v>
       </c>
-      <c r="I2">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K12" s="22">
         <v>0.9</v>
       </c>
-      <c r="K2">
+      <c r="L12" s="22">
         <v>0.1</v>
       </c>
-      <c r="M2">
+      <c r="M12" s="22"/>
+      <c r="N12" s="22">
         <v>38.700000000000003</v>
       </c>
-      <c r="N2">
+      <c r="O12" s="22">
         <v>30.9</v>
       </c>
-      <c r="O2">
+      <c r="P12" s="22">
         <v>7.8</v>
       </c>
-      <c r="Q2">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="23">
         <v>250</v>
       </c>
-      <c r="R2">
+      <c r="S12" s="23">
         <v>199</v>
       </c>
-      <c r="S2">
+      <c r="T12" s="23">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>1952</v>
+      </c>
+      <c r="B13" s="21">
         <v>37.5</v>
       </c>
-      <c r="B3">
+      <c r="C13" s="21">
         <v>30.2</v>
       </c>
-      <c r="C3">
+      <c r="D13" s="21">
         <v>7.2</v>
       </c>
-      <c r="E3">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
         <v>2.5</v>
       </c>
-      <c r="F3">
+      <c r="G13" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G3">
+      <c r="H13" s="22">
         <v>0.2</v>
       </c>
-      <c r="I3">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
         <v>0.7</v>
       </c>
-      <c r="J3">
+      <c r="K13" s="22">
         <v>0.6</v>
       </c>
-      <c r="K3">
+      <c r="L13" s="22">
         <v>0.2</v>
       </c>
-      <c r="M3">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
         <v>39.200000000000003</v>
       </c>
-      <c r="N3">
+      <c r="O13" s="22">
         <v>31.9</v>
       </c>
-      <c r="O3">
+      <c r="P13" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q3">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23">
         <v>249</v>
       </c>
-      <c r="R3">
+      <c r="S13" s="23">
         <v>203</v>
       </c>
-      <c r="S3">
+      <c r="T13" s="23">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>1953</v>
+      </c>
+      <c r="B14" s="21">
         <v>36.700000000000003</v>
       </c>
-      <c r="B4">
+      <c r="C14" s="21">
         <v>29.6</v>
       </c>
-      <c r="C4">
+      <c r="D14" s="21">
         <v>7.2</v>
       </c>
-      <c r="E4">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
         <v>2.8</v>
       </c>
-      <c r="F4">
+      <c r="G14" s="21">
         <v>2.5</v>
       </c>
-      <c r="G4">
+      <c r="H14" s="22">
         <v>0.2</v>
       </c>
-      <c r="I4">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22">
         <v>0.6</v>
       </c>
-      <c r="J4">
+      <c r="K14" s="22">
         <v>0.5</v>
       </c>
-      <c r="K4">
+      <c r="L14" s="22">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
         <v>38.9</v>
       </c>
-      <c r="N4">
+      <c r="O14" s="22">
         <v>31.6</v>
       </c>
-      <c r="O4">
+      <c r="P14" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q4">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23">
         <v>243</v>
       </c>
-      <c r="R4">
+      <c r="S14" s="23">
         <v>197</v>
       </c>
-      <c r="S4">
+      <c r="T14" s="23">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>1954</v>
+      </c>
+      <c r="B15" s="21">
         <v>36.4</v>
       </c>
-      <c r="B5">
+      <c r="C15" s="21">
         <v>29.3</v>
       </c>
-      <c r="C5">
+      <c r="D15" s="21">
         <v>7.1</v>
       </c>
-      <c r="E5">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
         <v>3.1</v>
       </c>
-      <c r="F5">
+      <c r="G15" s="21">
         <v>2.9</v>
       </c>
-      <c r="G5">
+      <c r="H15" s="22">
         <v>0.2</v>
       </c>
-      <c r="I5">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22">
         <v>0.7</v>
       </c>
-      <c r="J5">
+      <c r="K15" s="22">
         <v>0.6</v>
       </c>
-      <c r="K5">
+      <c r="L15" s="22">
         <v>0.1</v>
       </c>
-      <c r="M5">
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
         <v>38.700000000000003</v>
       </c>
-      <c r="N5">
+      <c r="O15" s="22">
         <v>31.5</v>
       </c>
-      <c r="O5">
+      <c r="P15" s="22">
         <v>7.1</v>
       </c>
-      <c r="Q5">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="23">
         <v>237</v>
       </c>
-      <c r="R5">
+      <c r="S15" s="23">
         <v>194</v>
       </c>
-      <c r="S5">
+      <c r="T15" s="23">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>1955</v>
+      </c>
+      <c r="B16" s="21">
         <v>37.4</v>
       </c>
-      <c r="B6">
+      <c r="C16" s="21">
         <v>29.8</v>
       </c>
-      <c r="C6">
+      <c r="D16" s="21">
         <v>7.6</v>
       </c>
-      <c r="E6">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
         <v>3.6</v>
       </c>
-      <c r="F6">
+      <c r="G16" s="21">
         <v>3.3</v>
       </c>
-      <c r="G6">
+      <c r="H16" s="22">
         <v>0.3</v>
       </c>
-      <c r="I6">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
         <v>0.8</v>
       </c>
-      <c r="J6">
+      <c r="K16" s="22">
         <v>0.7</v>
       </c>
-      <c r="K6">
+      <c r="L16" s="22">
         <v>0.2</v>
       </c>
-      <c r="M6">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22">
         <v>40.1</v>
       </c>
-      <c r="N6">
+      <c r="O16" s="22">
         <v>32.5</v>
       </c>
-      <c r="O6">
+      <c r="P16" s="22">
         <v>7.6</v>
       </c>
-      <c r="Q6">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="23">
         <v>242</v>
       </c>
-      <c r="R6">
+      <c r="S16" s="23">
         <v>196</v>
       </c>
-      <c r="S6">
+      <c r="T16" s="23">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>1956</v>
+      </c>
+      <c r="B17" s="21">
         <v>38.200000000000003</v>
       </c>
-      <c r="B7">
+      <c r="C17" s="21">
         <v>30.2</v>
       </c>
-      <c r="C7">
+      <c r="D17" s="21">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>3.4</v>
       </c>
-      <c r="F7">
+      <c r="G17" s="21">
         <v>3.1</v>
       </c>
-      <c r="G7">
+      <c r="H17" s="22">
         <v>0.3</v>
       </c>
-      <c r="I7">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22">
         <v>0.8</v>
       </c>
-      <c r="J7">
+      <c r="K17" s="22">
         <v>0.6</v>
       </c>
-      <c r="K7">
+      <c r="L17" s="22">
         <v>0.2</v>
       </c>
-      <c r="M7">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22">
         <v>40.9</v>
       </c>
-      <c r="N7">
+      <c r="O17" s="22">
         <v>32.799999999999997</v>
       </c>
-      <c r="O7">
+      <c r="P17" s="22">
         <v>8.1</v>
       </c>
-      <c r="Q7">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="23">
         <v>242</v>
       </c>
-      <c r="R7">
+      <c r="S17" s="23">
         <v>194</v>
       </c>
-      <c r="S7">
+      <c r="T17" s="23">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>1957</v>
+      </c>
+      <c r="B18" s="21">
         <v>32.9</v>
       </c>
-      <c r="B8">
+      <c r="C18" s="21">
         <v>27.1</v>
       </c>
-      <c r="C8">
+      <c r="D18" s="21">
         <v>5.8</v>
       </c>
-      <c r="E8">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="G18" s="21">
         <v>2.7</v>
       </c>
-      <c r="G8">
+      <c r="H18" s="22">
         <v>0.2</v>
       </c>
-      <c r="I8">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
         <v>0.8</v>
       </c>
-      <c r="J8">
+      <c r="K18" s="22">
         <v>0.6</v>
       </c>
-      <c r="K8">
+      <c r="L18" s="22">
         <v>0.2</v>
       </c>
-      <c r="M8">
+      <c r="M18" s="22"/>
+      <c r="N18" s="22">
         <v>35</v>
       </c>
-      <c r="N8">
+      <c r="O18" s="22">
         <v>29.2</v>
       </c>
-      <c r="O8">
+      <c r="P18" s="22">
         <v>5.8</v>
       </c>
-      <c r="Q8">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="23">
         <v>204</v>
       </c>
-      <c r="R8">
+      <c r="S18" s="23">
         <v>170</v>
       </c>
-      <c r="S8">
+      <c r="T18" s="23">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>1958</v>
+      </c>
+      <c r="B19" s="21">
         <v>33.4</v>
       </c>
-      <c r="B9">
+      <c r="C19" s="21">
         <v>27.4</v>
       </c>
-      <c r="C9">
+      <c r="D19" s="21">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
         <v>3.4</v>
       </c>
-      <c r="F9">
+      <c r="G19" s="21">
         <v>3.2</v>
       </c>
-      <c r="G9">
+      <c r="H19" s="22">
         <v>0.2</v>
       </c>
-      <c r="I9">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
         <v>0.7</v>
       </c>
-      <c r="J9">
+      <c r="K19" s="22">
         <v>0.6</v>
       </c>
-      <c r="K9">
+      <c r="L19" s="22">
         <v>0.2</v>
       </c>
-      <c r="M9">
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
         <v>36.1</v>
       </c>
-      <c r="N9">
+      <c r="O19" s="22">
         <v>30</v>
       </c>
-      <c r="O9">
+      <c r="P19" s="22">
         <v>6.1</v>
       </c>
-      <c r="Q9">
+      <c r="Q19" s="21"/>
+      <c r="R19" s="23">
         <v>206</v>
       </c>
-      <c r="R9">
+      <c r="S19" s="23">
         <v>171</v>
       </c>
-      <c r="S9">
+      <c r="T19" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>1959</v>
+      </c>
+      <c r="B20" s="21">
         <v>37.200000000000003</v>
       </c>
-      <c r="B10">
+      <c r="C20" s="21">
         <v>30.5</v>
       </c>
-      <c r="C10">
+      <c r="D20" s="21">
         <v>6.7</v>
       </c>
-      <c r="E10">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F10">
+      <c r="G20" s="21">
         <v>3.7</v>
       </c>
-      <c r="G10">
+      <c r="H20" s="22">
         <v>0.3</v>
       </c>
-      <c r="I10">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22">
         <v>0.8</v>
       </c>
-      <c r="J10">
+      <c r="K20" s="22">
         <v>0.6</v>
       </c>
-      <c r="K10">
+      <c r="L20" s="22">
         <v>0.2</v>
       </c>
-      <c r="M10">
+      <c r="M20" s="22"/>
+      <c r="N20" s="22">
         <v>40.5</v>
       </c>
-      <c r="N10">
+      <c r="O20" s="22">
         <v>33.700000000000003</v>
       </c>
-      <c r="O10">
+      <c r="P20" s="22">
         <v>6.8</v>
       </c>
-      <c r="Q10">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="23">
         <v>228</v>
       </c>
-      <c r="R10">
+      <c r="S20" s="23">
         <v>189</v>
       </c>
-      <c r="S10">
+      <c r="T20" s="23">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>1960</v>
+      </c>
+      <c r="B21" s="21">
         <v>32.9</v>
       </c>
-      <c r="B11">
+      <c r="C21" s="21">
         <v>26.7</v>
       </c>
-      <c r="C11">
+      <c r="D21" s="21">
         <v>6.3</v>
       </c>
-      <c r="E11">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
         <v>3.9</v>
       </c>
-      <c r="F11">
+      <c r="G21" s="21">
         <v>3.6</v>
       </c>
-      <c r="G11">
+      <c r="H21" s="22">
         <v>0.3</v>
       </c>
-      <c r="I11">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22">
         <v>0.9</v>
       </c>
-      <c r="J11">
+      <c r="K21" s="22">
         <v>0.7</v>
       </c>
-      <c r="K11">
+      <c r="L21" s="22">
         <v>0.2</v>
       </c>
-      <c r="M11">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22">
         <v>36</v>
       </c>
-      <c r="N11">
+      <c r="O21" s="22">
         <v>29.6</v>
       </c>
-      <c r="O11">
+      <c r="P21" s="22">
         <v>6.4</v>
       </c>
-      <c r="Q11">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="23">
         <v>199</v>
       </c>
-      <c r="R11">
+      <c r="S21" s="23">
         <v>164</v>
       </c>
-      <c r="S11">
+      <c r="T21" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>1961</v>
+      </c>
+      <c r="B22" s="21">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="C22" s="21">
         <v>26.1</v>
       </c>
-      <c r="C12">
+      <c r="D22" s="21">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21">
         <v>4.3</v>
       </c>
-      <c r="F12">
+      <c r="G22" s="21">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="H22" s="22">
         <v>0.2</v>
       </c>
-      <c r="I12">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22">
         <v>0.8</v>
       </c>
-      <c r="J12">
+      <c r="K22" s="22">
         <v>0.6</v>
       </c>
-      <c r="K12">
+      <c r="L22" s="22">
         <v>0.2</v>
       </c>
-      <c r="M12">
+      <c r="M22" s="22"/>
+      <c r="N22" s="22">
         <v>35.5</v>
       </c>
-      <c r="N12">
+      <c r="O22" s="22">
         <v>29.5</v>
       </c>
-      <c r="O12">
+      <c r="P22" s="22">
         <v>6</v>
       </c>
-      <c r="Q12">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="23">
         <v>193</v>
       </c>
-      <c r="R12">
+      <c r="S22" s="23">
         <v>160</v>
       </c>
-      <c r="S12">
+      <c r="T22" s="23">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>1962</v>
+      </c>
+      <c r="B23" s="21">
         <v>33.200000000000003</v>
       </c>
-      <c r="B13">
+      <c r="C23" s="21">
         <v>26.8</v>
       </c>
-      <c r="C13">
+      <c r="D23" s="21">
         <v>6.4</v>
       </c>
-      <c r="E13">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F13">
+      <c r="G23" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G13">
+      <c r="H23" s="22">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22">
         <v>0.8</v>
       </c>
-      <c r="J13">
+      <c r="K23" s="22">
         <v>0.6</v>
       </c>
-      <c r="K13">
+      <c r="L23" s="22">
         <v>0.1</v>
       </c>
-      <c r="M13">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22">
         <v>37.299999999999997</v>
       </c>
-      <c r="N13">
+      <c r="O23" s="22">
         <v>30.8</v>
       </c>
-      <c r="O13">
+      <c r="P23" s="22">
         <v>6.5</v>
       </c>
-      <c r="Q13">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="23">
         <v>200</v>
       </c>
-      <c r="R13">
+      <c r="S23" s="23">
         <v>165</v>
       </c>
-      <c r="S13">
+      <c r="T23" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>1963</v>
+      </c>
+      <c r="B24" s="21">
         <v>34.700000000000003</v>
       </c>
-      <c r="B14">
+      <c r="C24" s="21">
         <v>27.6</v>
       </c>
-      <c r="C14">
+      <c r="D24" s="21">
         <v>7.2</v>
       </c>
-      <c r="E14">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21">
         <v>5.3</v>
       </c>
-      <c r="F14">
+      <c r="G24" s="21">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H24" s="22">
         <v>0.3</v>
       </c>
-      <c r="I14">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22">
         <v>0.9</v>
       </c>
-      <c r="J14">
+      <c r="K24" s="22">
         <v>0.7</v>
       </c>
-      <c r="K14">
+      <c r="L24" s="22">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="M24" s="22"/>
+      <c r="N24" s="22">
         <v>39.200000000000003</v>
       </c>
-      <c r="N14">
+      <c r="O24" s="22">
         <v>31.8</v>
       </c>
-      <c r="O14">
+      <c r="P24" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q14">
+      <c r="Q24" s="21"/>
+      <c r="R24" s="23">
         <v>207</v>
       </c>
-      <c r="R14">
+      <c r="S24" s="23">
         <v>166</v>
       </c>
-      <c r="S14">
+      <c r="T24" s="23">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>1964</v>
+      </c>
+      <c r="B25" s="21">
         <v>36.6</v>
       </c>
-      <c r="B15">
+      <c r="C25" s="21">
         <v>29.3</v>
       </c>
-      <c r="C15">
+      <c r="D25" s="21">
         <v>7.3</v>
       </c>
-      <c r="E15">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21">
         <v>5.2</v>
       </c>
-      <c r="F15">
+      <c r="G25" s="21">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15">
+      <c r="H25" s="22">
         <v>0.3</v>
       </c>
-      <c r="I15">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="K25" s="22">
         <v>0.8</v>
       </c>
-      <c r="K15">
+      <c r="L25" s="22">
         <v>0.1</v>
       </c>
-      <c r="M15">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22">
         <v>40.799999999999997</v>
       </c>
-      <c r="N15">
+      <c r="O25" s="22">
         <v>33.4</v>
       </c>
-      <c r="O15">
+      <c r="P25" s="22">
         <v>7.4</v>
       </c>
-      <c r="Q15">
+      <c r="Q25" s="21"/>
+      <c r="R25" s="23">
         <v>213</v>
       </c>
-      <c r="R15">
+      <c r="S25" s="23">
         <v>174</v>
       </c>
-      <c r="S15">
+      <c r="T25" s="23">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>1965</v>
+      </c>
+      <c r="B26" s="21">
         <v>36.799999999999997</v>
       </c>
-      <c r="B16">
+      <c r="C26" s="21">
         <v>29.3</v>
       </c>
-      <c r="C16">
+      <c r="D26" s="21">
         <v>7.5</v>
       </c>
-      <c r="E16">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
         <v>5.2</v>
       </c>
-      <c r="F16">
+      <c r="G26" s="21">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G16">
+      <c r="H26" s="22">
         <v>0.3</v>
       </c>
-      <c r="I16">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22">
         <v>0.9</v>
       </c>
-      <c r="J16">
+      <c r="K26" s="22">
         <v>0.8</v>
       </c>
-      <c r="K16">
+      <c r="L26" s="22">
         <v>0.1</v>
       </c>
-      <c r="M16">
+      <c r="M26" s="22"/>
+      <c r="N26" s="22">
         <v>41.1</v>
       </c>
-      <c r="N16">
+      <c r="O26" s="22">
         <v>33.4</v>
       </c>
-      <c r="O16">
+      <c r="P26" s="22">
         <v>7.7</v>
       </c>
-      <c r="Q16">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="23">
         <v>212</v>
       </c>
-      <c r="R16">
+      <c r="S26" s="23">
         <v>172</v>
       </c>
-      <c r="S16">
+      <c r="T26" s="23">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>1966</v>
+      </c>
+      <c r="B27" s="21">
         <v>36.6</v>
       </c>
-      <c r="B17">
+      <c r="C27" s="21">
         <v>28.8</v>
       </c>
-      <c r="C17">
+      <c r="D27" s="21">
         <v>7.7</v>
       </c>
-      <c r="E17">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21">
         <v>5.2</v>
       </c>
-      <c r="F17">
+      <c r="G27" s="21">
         <v>4.8</v>
       </c>
-      <c r="G17">
+      <c r="H27" s="22">
         <v>0.4</v>
       </c>
-      <c r="I17">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="K27" s="22">
         <v>0.9</v>
       </c>
-      <c r="K17">
+      <c r="L27" s="22">
         <v>0.2</v>
       </c>
-      <c r="M17">
+      <c r="M27" s="22"/>
+      <c r="N27" s="22">
         <v>40.799999999999997</v>
       </c>
-      <c r="N17">
+      <c r="O27" s="22">
         <v>32.799999999999997</v>
       </c>
-      <c r="O17">
+      <c r="P27" s="22">
         <v>8</v>
       </c>
-      <c r="Q17">
+      <c r="Q27" s="21"/>
+      <c r="R27" s="23">
         <v>207</v>
       </c>
-      <c r="R17">
+      <c r="S27" s="23">
         <v>167</v>
       </c>
-      <c r="S17">
+      <c r="T27" s="23">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>1967</v>
+      </c>
+      <c r="B28" s="21">
         <v>34.700000000000003</v>
       </c>
-      <c r="B18">
+      <c r="C28" s="21">
         <v>27.3</v>
       </c>
-      <c r="C18">
+      <c r="D28" s="21">
         <v>7.4</v>
       </c>
-      <c r="E18">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F18">
+      <c r="G28" s="21">
         <v>4.8</v>
       </c>
-      <c r="G18">
+      <c r="H28" s="22">
         <v>0.3</v>
       </c>
-      <c r="I18">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J18">
+      <c r="K28" s="22">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="L28" s="22">
         <v>0.2</v>
       </c>
-      <c r="M18">
+      <c r="M28" s="22"/>
+      <c r="N28" s="22">
         <v>38.799999999999997</v>
       </c>
-      <c r="N18">
+      <c r="O28" s="22">
         <v>31.1</v>
       </c>
-      <c r="O18">
+      <c r="P28" s="22">
         <v>7.6</v>
       </c>
-      <c r="Q18">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="23">
         <v>195</v>
       </c>
-      <c r="R18">
+      <c r="S28" s="23">
         <v>157</v>
       </c>
-      <c r="S18">
+      <c r="T28" s="23">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>1968</v>
+      </c>
+      <c r="B29" s="21">
         <v>36.5</v>
       </c>
-      <c r="B19">
+      <c r="C29" s="21">
         <v>29.3</v>
       </c>
-      <c r="C19">
+      <c r="D29" s="21">
         <v>7.2</v>
       </c>
-      <c r="E19">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
         <v>6.2</v>
       </c>
-      <c r="F19">
+      <c r="G29" s="21">
         <v>5.8</v>
       </c>
-      <c r="G19">
+      <c r="H29" s="22">
         <v>0.3</v>
       </c>
-      <c r="I19">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22">
         <v>1.2</v>
       </c>
-      <c r="J19">
+      <c r="K29" s="22">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="L29" s="22">
         <v>0.1</v>
       </c>
-      <c r="M19">
+      <c r="M29" s="22"/>
+      <c r="N29" s="22">
         <v>41.5</v>
       </c>
-      <c r="N19">
+      <c r="O29" s="22">
         <v>34</v>
       </c>
-      <c r="O19">
+      <c r="P29" s="22">
         <v>7.4</v>
       </c>
-      <c r="Q19">
+      <c r="Q29" s="21"/>
+      <c r="R29" s="23">
         <v>207</v>
       </c>
-      <c r="R19">
+      <c r="S29" s="23">
         <v>170</v>
       </c>
-      <c r="S19">
+      <c r="T29" s="23">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>1969</v>
+      </c>
+      <c r="B30" s="21">
         <v>35.799999999999997</v>
       </c>
-      <c r="B20">
+      <c r="C30" s="21">
         <v>28.3</v>
       </c>
-      <c r="C20">
+      <c r="D30" s="21">
         <v>7.5</v>
       </c>
-      <c r="E20">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
         <v>6.3</v>
       </c>
-      <c r="F20">
+      <c r="G30" s="21">
         <v>5.9</v>
       </c>
-      <c r="G20">
+      <c r="H30" s="22">
         <v>0.4</v>
       </c>
-      <c r="I20">
+      <c r="I30" s="22"/>
+      <c r="J30" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20">
+      <c r="K30" s="22">
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="L30" s="22">
         <v>0.1</v>
       </c>
-      <c r="M20">
+      <c r="M30" s="22"/>
+      <c r="N30" s="22">
         <v>41</v>
       </c>
-      <c r="N20">
+      <c r="O30" s="22">
         <v>33.200000000000003</v>
       </c>
-      <c r="O20">
+      <c r="P30" s="22">
         <v>7.8</v>
       </c>
-      <c r="Q20">
+      <c r="Q30" s="21"/>
+      <c r="R30" s="23">
         <v>202</v>
       </c>
-      <c r="R20">
+      <c r="S30" s="23">
         <v>164</v>
       </c>
-      <c r="S20">
+      <c r="T30" s="23">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>1970</v>
+      </c>
+      <c r="B31" s="21">
         <v>34.700000000000003</v>
       </c>
-      <c r="B21">
+      <c r="C31" s="21">
         <v>27.5</v>
       </c>
-      <c r="C21">
+      <c r="D31" s="21">
         <v>7.1</v>
       </c>
-      <c r="E21">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21">
         <v>6.1</v>
       </c>
-      <c r="F21">
+      <c r="G31" s="21">
         <v>5.8</v>
       </c>
-      <c r="G21">
+      <c r="H31" s="22">
         <v>0.3</v>
       </c>
-      <c r="I21">
+      <c r="I31" s="22"/>
+      <c r="J31" s="22">
         <v>1.2</v>
       </c>
-      <c r="J21">
+      <c r="K31" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21">
+      <c r="L31" s="22">
         <v>0.1</v>
       </c>
-      <c r="M21">
+      <c r="M31" s="22"/>
+      <c r="N31" s="22">
         <v>39.5</v>
       </c>
-      <c r="N21">
+      <c r="O31" s="22">
         <v>32.200000000000003</v>
       </c>
-      <c r="O21">
+      <c r="P31" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q21">
+      <c r="Q31" s="21"/>
+      <c r="R31" s="23">
         <v>193</v>
       </c>
-      <c r="R21">
+      <c r="S31" s="23">
         <v>157</v>
       </c>
-      <c r="S21">
+      <c r="T31" s="23">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>1971</v>
+      </c>
+      <c r="B32" s="21">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="C32" s="21">
         <v>30</v>
       </c>
-      <c r="C22">
+      <c r="D32" s="21">
         <v>6.9</v>
       </c>
-      <c r="E22">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
         <v>7.6</v>
       </c>
-      <c r="F22">
+      <c r="G32" s="21">
         <v>7.2</v>
       </c>
-      <c r="G22">
+      <c r="H32" s="22">
         <v>0.4</v>
       </c>
-      <c r="I22">
+      <c r="I32" s="22"/>
+      <c r="J32" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J22">
+      <c r="K32" s="22">
         <v>0.9</v>
       </c>
-      <c r="K22">
+      <c r="L32" s="22">
         <v>0.2</v>
       </c>
-      <c r="M22">
+      <c r="M32" s="22"/>
+      <c r="N32" s="22">
         <v>43.5</v>
       </c>
-      <c r="N22">
+      <c r="O32" s="22">
         <v>36.299999999999997</v>
       </c>
-      <c r="O22">
+      <c r="P32" s="22">
         <v>7.1</v>
       </c>
-      <c r="Q22">
+      <c r="Q32" s="21"/>
+      <c r="R32" s="23">
         <v>209</v>
       </c>
-      <c r="R22">
+      <c r="S32" s="23">
         <v>175</v>
       </c>
-      <c r="S22">
+      <c r="T32" s="23">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>1972</v>
+      </c>
+      <c r="B33" s="21">
         <v>37.700000000000003</v>
       </c>
-      <c r="B23">
+      <c r="C33" s="21">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="D33" s="21">
         <v>6.8</v>
       </c>
-      <c r="E23">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21">
         <v>9.4</v>
       </c>
-      <c r="F23">
+      <c r="G33" s="21">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="H33" s="22">
         <v>0.4</v>
       </c>
-      <c r="I23">
+      <c r="I33" s="22"/>
+      <c r="J33" s="22">
         <v>1.4</v>
       </c>
-      <c r="J23">
+      <c r="K33" s="22">
         <v>1.2</v>
       </c>
-      <c r="K23">
+      <c r="L33" s="22">
         <v>0.2</v>
       </c>
-      <c r="M23">
+      <c r="M33" s="22"/>
+      <c r="N33" s="22">
         <v>45.8</v>
       </c>
-      <c r="N23">
+      <c r="O33" s="22">
         <v>38.799999999999997</v>
       </c>
-      <c r="O23">
+      <c r="P33" s="22">
         <v>7</v>
       </c>
-      <c r="Q23">
+      <c r="Q33" s="21"/>
+      <c r="R33" s="23">
         <v>218</v>
       </c>
-      <c r="R23">
+      <c r="S33" s="23">
         <v>185</v>
       </c>
-      <c r="S23">
+      <c r="T33" s="23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>1973</v>
+      </c>
+      <c r="B34" s="21">
         <v>38.6</v>
       </c>
-      <c r="B24">
+      <c r="C34" s="21">
         <v>31.6</v>
       </c>
-      <c r="C24">
+      <c r="D34" s="21">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E34" s="21"/>
+      <c r="F34" s="21">
         <v>9.6</v>
       </c>
-      <c r="F24">
+      <c r="G34" s="21">
         <v>9</v>
       </c>
-      <c r="G24">
+      <c r="H34" s="22">
         <v>0.5</v>
       </c>
-      <c r="I24">
+      <c r="I34" s="22"/>
+      <c r="J34" s="22">
         <v>2</v>
       </c>
-      <c r="J24">
+      <c r="K34" s="22">
         <v>1.8</v>
       </c>
-      <c r="K24">
+      <c r="L34" s="22">
         <v>0.2</v>
       </c>
-      <c r="M24">
+      <c r="M34" s="22"/>
+      <c r="N34" s="22">
         <v>46.2</v>
       </c>
-      <c r="N24">
+      <c r="O34" s="22">
         <v>38.9</v>
       </c>
-      <c r="O24">
+      <c r="P34" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q24">
+      <c r="Q34" s="21"/>
+      <c r="R34" s="23">
         <v>218</v>
       </c>
-      <c r="R24">
+      <c r="S34" s="23">
         <v>183</v>
       </c>
-      <c r="S24">
+      <c r="T34" s="23">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>1974</v>
+      </c>
+      <c r="B35" s="21">
         <v>34.6</v>
       </c>
-      <c r="B25">
+      <c r="C35" s="21">
         <v>27.7</v>
       </c>
-      <c r="C25">
+      <c r="D35" s="21">
         <v>6.9</v>
       </c>
-      <c r="E25">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
         <v>7.3</v>
       </c>
-      <c r="F25">
+      <c r="G35" s="21">
         <v>6.8</v>
       </c>
-      <c r="G25">
+      <c r="H35" s="22">
         <v>0.4</v>
       </c>
-      <c r="I25">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22">
         <v>1.8</v>
       </c>
-      <c r="J25">
+      <c r="K35" s="22">
         <v>1.6</v>
       </c>
-      <c r="K25">
+      <c r="L35" s="22">
         <v>0.2</v>
       </c>
-      <c r="M25">
+      <c r="M35" s="22"/>
+      <c r="N35" s="22">
         <v>40.1</v>
       </c>
-      <c r="N25">
+      <c r="O35" s="22">
         <v>33</v>
       </c>
-      <c r="O25">
+      <c r="P35" s="22">
         <v>7.2</v>
       </c>
-      <c r="Q25">
+      <c r="Q35" s="21"/>
+      <c r="R35" s="23">
         <v>188</v>
       </c>
-      <c r="R25">
+      <c r="S35" s="23">
         <v>154</v>
       </c>
-      <c r="S25">
+      <c r="T35" s="23">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>1975</v>
+      </c>
+      <c r="B36" s="21">
         <v>32.6</v>
       </c>
-      <c r="B26">
+      <c r="C36" s="21">
         <v>26.7</v>
       </c>
-      <c r="C26">
+      <c r="D36" s="21">
         <v>5.9</v>
       </c>
-      <c r="E26">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="G36" s="21">
         <v>5.7</v>
       </c>
-      <c r="G26">
+      <c r="H36" s="22">
         <v>0.3</v>
       </c>
-      <c r="I26">
+      <c r="I36" s="22"/>
+      <c r="J36" s="22">
         <v>1.6</v>
       </c>
-      <c r="J26">
+      <c r="K36" s="22">
         <v>1.4</v>
       </c>
-      <c r="K26">
+      <c r="L36" s="22">
         <v>0.2</v>
       </c>
-      <c r="M26">
+      <c r="M36" s="22"/>
+      <c r="N36" s="22">
         <v>37</v>
       </c>
-      <c r="N26">
+      <c r="O36" s="22">
         <v>31.1</v>
       </c>
-      <c r="O26">
+      <c r="P36" s="22">
         <v>5.9</v>
       </c>
-      <c r="Q26">
+      <c r="Q36" s="21"/>
+      <c r="R36" s="23">
         <v>171</v>
       </c>
-      <c r="R26">
+      <c r="S36" s="23">
         <v>144</v>
       </c>
-      <c r="S26">
+      <c r="T36" s="23">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>1976</v>
+      </c>
+      <c r="B37" s="21">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="C37" s="21">
         <v>30.6</v>
       </c>
-      <c r="C27">
+      <c r="D37" s="21">
         <v>6.4</v>
       </c>
-      <c r="E27">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F27">
+      <c r="G37" s="21">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="H37" s="22">
         <v>0.3</v>
       </c>
-      <c r="I27">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22">
         <v>1.8</v>
       </c>
-      <c r="J27">
+      <c r="K37" s="22">
         <v>1.6</v>
       </c>
-      <c r="K27">
+      <c r="L37" s="22">
         <v>0.2</v>
       </c>
-      <c r="M27">
+      <c r="M37" s="22"/>
+      <c r="N37" s="22">
         <v>43.4</v>
       </c>
-      <c r="N27">
+      <c r="O37" s="22">
         <v>36.9</v>
       </c>
-      <c r="O27">
+      <c r="P37" s="22">
         <v>6.5</v>
       </c>
-      <c r="Q27">
+      <c r="Q37" s="21"/>
+      <c r="R37" s="23">
         <v>199</v>
       </c>
-      <c r="R27">
+      <c r="S37" s="23">
         <v>169</v>
       </c>
-      <c r="S27">
+      <c r="T37" s="23">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>1977</v>
+      </c>
+      <c r="B38" s="21">
         <v>39.4</v>
       </c>
-      <c r="B28">
+      <c r="C38" s="21">
         <v>32.700000000000003</v>
       </c>
-      <c r="C28">
+      <c r="D38" s="21">
         <v>6.7</v>
       </c>
-      <c r="E28">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
         <v>10.7</v>
       </c>
-      <c r="F28">
+      <c r="G38" s="21">
         <v>10.4</v>
       </c>
-      <c r="G28">
+      <c r="H38" s="22">
         <v>0.3</v>
       </c>
-      <c r="I28">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
         <v>1.7</v>
       </c>
-      <c r="J28">
+      <c r="K38" s="22">
         <v>1.4</v>
       </c>
-      <c r="K28">
+      <c r="L38" s="22">
         <v>0.2</v>
       </c>
-      <c r="M28">
+      <c r="M38" s="22"/>
+      <c r="N38" s="22">
         <v>48.4</v>
       </c>
-      <c r="N28">
+      <c r="O38" s="22">
         <v>41.6</v>
       </c>
-      <c r="O28">
+      <c r="P38" s="22">
         <v>6.8</v>
       </c>
-      <c r="Q28">
+      <c r="Q38" s="21"/>
+      <c r="R38" s="23">
         <v>220</v>
       </c>
-      <c r="R28">
+      <c r="S38" s="23">
         <v>189</v>
       </c>
-      <c r="S28">
+      <c r="T38" s="23">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>1978</v>
+      </c>
+      <c r="B39" s="21">
         <v>40.5</v>
       </c>
-      <c r="B29">
+      <c r="C39" s="21">
         <v>33.5</v>
       </c>
-      <c r="C29">
+      <c r="D39" s="21">
         <v>7</v>
       </c>
-      <c r="E29">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21">
         <v>12.2</v>
       </c>
-      <c r="F29">
+      <c r="G39" s="21">
         <v>11.9</v>
       </c>
-      <c r="G29">
+      <c r="H39" s="22">
         <v>0.4</v>
       </c>
-      <c r="I29">
+      <c r="I39" s="22"/>
+      <c r="J39" s="22">
         <v>1.7</v>
       </c>
-      <c r="J29">
+      <c r="K39" s="22">
         <v>1.4</v>
       </c>
-      <c r="K29">
+      <c r="L39" s="22">
         <v>0.4</v>
       </c>
-      <c r="M29">
+      <c r="M39" s="22"/>
+      <c r="N39" s="22">
         <v>51</v>
       </c>
-      <c r="N29">
+      <c r="O39" s="22">
         <v>44</v>
       </c>
-      <c r="O29">
+      <c r="P39" s="22">
         <v>7</v>
       </c>
-      <c r="Q29">
+      <c r="Q39" s="21"/>
+      <c r="R39" s="23">
         <v>229</v>
       </c>
-      <c r="R29">
+      <c r="S39" s="23">
         <v>198</v>
       </c>
-      <c r="S29">
+      <c r="T39" s="23">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>1979</v>
+      </c>
+      <c r="B40" s="21">
         <v>40.6</v>
       </c>
-      <c r="B30">
+      <c r="C40" s="21">
         <v>33.299999999999997</v>
       </c>
-      <c r="C30">
+      <c r="D40" s="21">
         <v>7.3</v>
       </c>
-      <c r="E30">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21">
         <v>11.5</v>
       </c>
-      <c r="F30">
+      <c r="G40" s="21">
         <v>11.2</v>
       </c>
-      <c r="G30">
+      <c r="H40" s="22">
         <v>0.4</v>
       </c>
-      <c r="I30">
+      <c r="I40" s="22"/>
+      <c r="J40" s="22">
         <v>2.1</v>
       </c>
-      <c r="J30">
+      <c r="K40" s="22">
         <v>1.8</v>
       </c>
-      <c r="K30">
+      <c r="L40" s="22">
         <v>0.4</v>
       </c>
-      <c r="M30">
+      <c r="M40" s="22"/>
+      <c r="N40" s="22">
         <v>50</v>
       </c>
-      <c r="N30">
+      <c r="O40" s="22">
         <v>42.6</v>
       </c>
-      <c r="O30">
+      <c r="P40" s="22">
         <v>7.3</v>
       </c>
-      <c r="Q30">
+      <c r="Q40" s="21"/>
+      <c r="R40" s="23">
         <v>222</v>
       </c>
-      <c r="R30">
+      <c r="S40" s="23">
         <v>189</v>
       </c>
-      <c r="S30">
+      <c r="T40" s="23">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>1980</v>
+      </c>
+      <c r="B41" s="21">
         <v>35.4</v>
       </c>
-      <c r="B31">
+      <c r="C41" s="21">
         <v>28.2</v>
       </c>
-      <c r="C31">
+      <c r="D41" s="21">
         <v>7.1</v>
       </c>
-      <c r="E31">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21">
         <v>9.9</v>
       </c>
-      <c r="F31">
+      <c r="G41" s="21">
         <v>9.6</v>
       </c>
-      <c r="G31">
+      <c r="H41" s="22">
         <v>0.3</v>
       </c>
-      <c r="I31">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22">
         <v>2.5</v>
       </c>
-      <c r="J31">
+      <c r="K41" s="22">
         <v>2</v>
       </c>
-      <c r="K31">
+      <c r="L41" s="22">
         <v>0.5</v>
       </c>
-      <c r="M31">
+      <c r="M41" s="22"/>
+      <c r="N41" s="22">
         <v>42.7</v>
       </c>
-      <c r="N31">
+      <c r="O41" s="22">
         <v>35.799999999999997</v>
       </c>
-      <c r="O31">
+      <c r="P41" s="22">
         <v>6.9</v>
       </c>
-      <c r="Q31">
+      <c r="Q41" s="21"/>
+      <c r="R41" s="23">
         <v>188</v>
       </c>
-      <c r="R31">
+      <c r="S41" s="23">
         <v>157</v>
       </c>
-      <c r="S31">
+      <c r="T41" s="23">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="21">
         <v>31.7</v>
       </c>
-      <c r="B32">
+      <c r="C42" s="21">
         <v>25.4</v>
       </c>
-      <c r="C32">
+      <c r="D42" s="21">
         <v>6.3</v>
       </c>
-      <c r="E32">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21">
         <v>9.5</v>
       </c>
-      <c r="F32">
+      <c r="G42" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G32">
+      <c r="H42" s="22">
         <v>0.3</v>
       </c>
-      <c r="I32">
+      <c r="I42" s="22"/>
+      <c r="J42" s="22">
         <v>2.4</v>
       </c>
-      <c r="J32">
+      <c r="K42" s="22">
         <v>1.9</v>
       </c>
-      <c r="K32">
+      <c r="L42" s="22">
         <v>0.5</v>
       </c>
-      <c r="M32">
+      <c r="M42" s="22"/>
+      <c r="N42" s="22">
         <v>38.799999999999997</v>
       </c>
-      <c r="N32">
+      <c r="O42" s="22">
         <v>32.700000000000003</v>
       </c>
-      <c r="O32">
+      <c r="P42" s="22">
         <v>6.1</v>
       </c>
-      <c r="Q32">
+      <c r="Q42" s="21"/>
+      <c r="R42" s="23">
         <v>169</v>
       </c>
-      <c r="R32">
+      <c r="S42" s="23">
         <v>142</v>
       </c>
-      <c r="S32">
+      <c r="T42" s="23">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>1982</v>
+      </c>
+      <c r="B43" s="21">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="C43" s="21">
         <v>24.9</v>
       </c>
-      <c r="C33">
+      <c r="D43" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E33">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21">
         <v>9.4</v>
       </c>
-      <c r="F33">
+      <c r="G43" s="21">
         <v>9.1</v>
       </c>
-      <c r="G33">
+      <c r="H43" s="22">
         <v>0.2</v>
       </c>
-      <c r="I33">
+      <c r="I43" s="22"/>
+      <c r="J43" s="22">
         <v>2</v>
       </c>
-      <c r="J33">
+      <c r="K43" s="22">
         <v>1.6</v>
       </c>
-      <c r="K33">
+      <c r="L43" s="22">
         <v>0.4</v>
       </c>
-      <c r="M33">
+      <c r="M43" s="22"/>
+      <c r="N43" s="22">
         <v>37.299999999999997</v>
       </c>
-      <c r="N33">
+      <c r="O43" s="22">
         <v>32.5</v>
       </c>
-      <c r="O33">
+      <c r="P43" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q33">
+      <c r="Q43" s="21"/>
+      <c r="R43" s="23">
         <v>161</v>
       </c>
-      <c r="R33">
+      <c r="S43" s="23">
         <v>140</v>
       </c>
-      <c r="S33">
+      <c r="T43" s="23">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>1983</v>
+      </c>
+      <c r="B44" s="21">
         <v>34.6</v>
       </c>
-      <c r="B34">
+      <c r="C44" s="21">
         <v>28.9</v>
       </c>
-      <c r="C34">
+      <c r="D44" s="21">
         <v>5.6</v>
       </c>
-      <c r="E34">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
         <v>12.3</v>
       </c>
-      <c r="F34">
+      <c r="G44" s="21">
         <v>12</v>
       </c>
-      <c r="G34">
+      <c r="H44" s="22">
         <v>0.3</v>
       </c>
-      <c r="I34">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J34">
+      <c r="K44" s="22">
         <v>1.8</v>
       </c>
-      <c r="K34">
+      <c r="L44" s="22">
         <v>0.5</v>
       </c>
-      <c r="M34">
+      <c r="M44" s="22"/>
+      <c r="N44" s="22">
         <v>44.5</v>
       </c>
-      <c r="N34">
+      <c r="O44" s="22">
         <v>39.200000000000003</v>
       </c>
-      <c r="O34">
+      <c r="P44" s="22">
         <v>5.4</v>
       </c>
-      <c r="Q34">
+      <c r="Q44" s="21"/>
+      <c r="R44" s="23">
         <v>190</v>
       </c>
-      <c r="R34">
+      <c r="S44" s="23">
         <v>167</v>
       </c>
-      <c r="S34">
+      <c r="T44" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>1984</v>
+      </c>
+      <c r="B45" s="21">
         <v>37.1</v>
       </c>
-      <c r="B35">
+      <c r="C45" s="21">
         <v>30.8</v>
       </c>
-      <c r="C35">
+      <c r="D45" s="21">
         <v>6.3</v>
       </c>
-      <c r="E35">
+      <c r="E45" s="21"/>
+      <c r="F45" s="21">
         <v>13.6</v>
       </c>
-      <c r="F35">
+      <c r="G45" s="21">
         <v>13.3</v>
       </c>
-      <c r="G35">
+      <c r="H45" s="22">
         <v>0.3</v>
       </c>
-      <c r="I35">
+      <c r="I45" s="22"/>
+      <c r="J45" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J35">
+      <c r="K45" s="22">
         <v>1.6</v>
       </c>
-      <c r="K35">
+      <c r="L45" s="22">
         <v>0.5</v>
       </c>
-      <c r="M35">
+      <c r="M45" s="22"/>
+      <c r="N45" s="22">
         <v>48.5</v>
       </c>
-      <c r="N35">
+      <c r="O45" s="22">
         <v>42.5</v>
       </c>
-      <c r="O35">
+      <c r="P45" s="22">
         <v>6.1</v>
       </c>
-      <c r="Q35">
+      <c r="Q45" s="21"/>
+      <c r="R45" s="23">
         <v>205</v>
       </c>
-      <c r="R35">
+      <c r="S45" s="23">
         <v>179</v>
       </c>
-      <c r="S35">
+      <c r="T45" s="23">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>1985</v>
+      </c>
+      <c r="B46" s="21">
         <v>36.4</v>
       </c>
-      <c r="B36">
+      <c r="C46" s="21">
         <v>30.5</v>
       </c>
-      <c r="C36">
+      <c r="D46" s="21">
         <v>6</v>
       </c>
-      <c r="E36">
+      <c r="E46" s="21"/>
+      <c r="F46" s="21">
         <v>15</v>
       </c>
-      <c r="F36">
+      <c r="G46" s="21">
         <v>14.6</v>
       </c>
-      <c r="G36">
+      <c r="H46" s="22">
         <v>0.4</v>
       </c>
-      <c r="I36">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22">
         <v>1.9</v>
       </c>
-      <c r="J36">
+      <c r="K46" s="22">
         <v>1.5</v>
       </c>
-      <c r="K36">
+      <c r="L46" s="22">
         <v>0.4</v>
       </c>
-      <c r="M36">
+      <c r="M46" s="22"/>
+      <c r="N46" s="22">
         <v>49.5</v>
       </c>
-      <c r="N36">
+      <c r="O46" s="22">
         <v>43.6</v>
       </c>
-      <c r="O36">
+      <c r="P46" s="22">
         <v>5.9</v>
       </c>
-      <c r="Q36">
+      <c r="Q46" s="21"/>
+      <c r="R46" s="23">
         <v>207</v>
       </c>
-      <c r="R36">
+      <c r="S46" s="23">
         <v>182</v>
       </c>
-      <c r="S36">
+      <c r="T46" s="23">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>1986</v>
+      </c>
+      <c r="B47" s="21">
         <v>42</v>
       </c>
-      <c r="B37">
+      <c r="C47" s="21">
         <v>34.799999999999997</v>
       </c>
-      <c r="C37">
+      <c r="D47" s="21">
         <v>7.2</v>
       </c>
-      <c r="E37">
+      <c r="E47" s="21"/>
+      <c r="F47" s="21">
         <v>14.6</v>
       </c>
-      <c r="F37">
+      <c r="G47" s="21">
         <v>14.3</v>
       </c>
-      <c r="G37">
+      <c r="H47" s="22">
         <v>0.3</v>
       </c>
-      <c r="I37">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22">
         <v>2.4</v>
       </c>
-      <c r="J37">
+      <c r="K47" s="22">
         <v>1.9</v>
       </c>
-      <c r="K37">
+      <c r="L47" s="22">
         <v>0.5</v>
       </c>
-      <c r="M37">
+      <c r="M47" s="22"/>
+      <c r="N47" s="22">
         <v>54.2</v>
       </c>
-      <c r="N37">
+      <c r="O47" s="22">
         <v>47.2</v>
       </c>
-      <c r="O37">
+      <c r="P47" s="22">
         <v>7</v>
       </c>
-      <c r="Q37">
+      <c r="Q47" s="21"/>
+      <c r="R47" s="23">
         <v>224</v>
       </c>
-      <c r="R37">
+      <c r="S47" s="23">
         <v>195</v>
       </c>
-      <c r="S37">
+      <c r="T47" s="23">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="21">
         <v>44.9</v>
       </c>
-      <c r="B38">
+      <c r="C48" s="21">
         <v>37.4</v>
       </c>
-      <c r="C38">
+      <c r="D48" s="21">
         <v>7.5</v>
       </c>
-      <c r="E38">
+      <c r="E48" s="21"/>
+      <c r="F48" s="21">
         <v>15.2</v>
       </c>
-      <c r="F38">
+      <c r="G48" s="21">
         <v>14.7</v>
       </c>
-      <c r="G38">
+      <c r="H48" s="22">
         <v>0.5</v>
       </c>
-      <c r="I38">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22">
         <v>3.3</v>
       </c>
-      <c r="J38">
+      <c r="K48" s="22">
         <v>2.5</v>
       </c>
-      <c r="K38">
+      <c r="L48" s="22">
         <v>0.8</v>
       </c>
-      <c r="M38">
+      <c r="M48" s="22"/>
+      <c r="N48" s="22">
         <v>56.9</v>
       </c>
-      <c r="N38">
+      <c r="O48" s="22">
         <v>49.7</v>
       </c>
-      <c r="O38">
+      <c r="P48" s="22">
         <v>7.2</v>
       </c>
-      <c r="Q38">
+      <c r="Q48" s="21"/>
+      <c r="R48" s="23">
         <v>233</v>
       </c>
-      <c r="R38">
+      <c r="S48" s="23">
         <v>204</v>
       </c>
-      <c r="S38">
+      <c r="T48" s="23">
         <v>29</v>
       </c>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="33"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="33"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="33"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="33"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="33"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="33"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="33"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="33"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:O52"/>
+    <mergeCell ref="G53:O53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:O50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:O51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>